--- a/grades.xlsx
+++ b/grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaxo\Desktop\Dev\SkoltechACS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EA58DF-698A-4042-80B1-6ACEEB95FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDEBE73-5185-47C5-8179-C3ED4BE5AF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>subject</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Introduction to Computer Vision</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -442,6 +445,9 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
